--- a/Modele/Sanwa PC5000av2.xlsx
+++ b/Modele/Sanwa PC5000av2.xlsx
@@ -43,7 +43,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -98,11 +98,55 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="00000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="00000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="00000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="00000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="00000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="00000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="00000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="00000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -112,6 +156,8 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -477,7 +523,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B15:G37"/>
+  <dimension ref="A12:G37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -493,7 +539,35 @@
     <col width="11" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
+    <row r="12">
+      <c r="A12" t="inlineStr"/>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr"/>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr"/>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+    </row>
     <row r="15">
+      <c r="A15" t="inlineStr"/>
       <c r="B15" s="1" t="inlineStr">
         <is>
           <t>Zakres</t>
@@ -526,238 +600,310 @@
       </c>
     </row>
     <row r="16">
+      <c r="A16" t="inlineStr"/>
       <c r="B16" s="2" t="inlineStr">
         <is>
           <t>mV</t>
         </is>
       </c>
-      <c r="C16" s="2" t="n"/>
-      <c r="D16" s="2" t="n"/>
-      <c r="E16" s="2" t="n"/>
-      <c r="F16" s="2" t="n"/>
-      <c r="G16" s="2" t="n"/>
+      <c r="C16" s="5" t="n"/>
+      <c r="D16" s="5" t="n"/>
+      <c r="E16" s="5" t="n"/>
+      <c r="F16" s="5" t="n"/>
+      <c r="G16" s="6" t="n"/>
     </row>
     <row r="17">
-      <c r="B17" s="2" t="n">
-        <v>400</v>
-      </c>
-      <c r="C17" s="2" t="n">
-        <v>40</v>
-      </c>
-      <c r="D17" s="2" t="n"/>
-      <c r="E17" s="2" t="n"/>
-      <c r="F17" s="2" t="n"/>
-      <c r="G17" s="2" t="n"/>
+      <c r="A17" t="inlineStr"/>
+      <c r="B17" s="2" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr"/>
+      <c r="E17" s="2" t="inlineStr"/>
+      <c r="F17" s="2" t="inlineStr"/>
+      <c r="G17" s="2" t="inlineStr"/>
     </row>
     <row r="18">
+      <c r="A18" t="inlineStr"/>
       <c r="B18" s="3" t="n"/>
-      <c r="C18" s="2" t="n">
-        <v>200</v>
-      </c>
-      <c r="D18" s="2" t="n"/>
-      <c r="E18" s="2" t="n"/>
-      <c r="F18" s="2" t="n"/>
-      <c r="G18" s="2" t="n"/>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>200.0</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr"/>
+      <c r="E18" s="2" t="inlineStr"/>
+      <c r="F18" s="2" t="inlineStr"/>
+      <c r="G18" s="2" t="inlineStr"/>
     </row>
     <row r="19">
+      <c r="A19" t="inlineStr"/>
       <c r="B19" s="3" t="n"/>
-      <c r="C19" s="2" t="n">
-        <v>360</v>
-      </c>
-      <c r="D19" s="2" t="n"/>
-      <c r="E19" s="2" t="n"/>
-      <c r="F19" s="2" t="n"/>
-      <c r="G19" s="2" t="n"/>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>360.0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr"/>
+      <c r="E19" s="2" t="inlineStr"/>
+      <c r="F19" s="2" t="inlineStr"/>
+      <c r="G19" s="2" t="inlineStr"/>
     </row>
     <row r="20">
+      <c r="A20" t="inlineStr"/>
       <c r="B20" s="4" t="n"/>
-      <c r="C20" s="2" t="n">
-        <v>-360</v>
-      </c>
-      <c r="D20" s="2" t="n"/>
-      <c r="E20" s="2" t="n"/>
-      <c r="F20" s="2" t="n"/>
-      <c r="G20" s="2" t="n"/>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>-360.0</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr"/>
+      <c r="E20" s="2" t="inlineStr"/>
+      <c r="F20" s="2" t="inlineStr"/>
+      <c r="G20" s="2" t="inlineStr"/>
     </row>
     <row r="21">
+      <c r="A21" t="inlineStr"/>
       <c r="B21" s="2" t="inlineStr">
         <is>
           <t>V</t>
         </is>
       </c>
-      <c r="C21" s="2" t="n"/>
-      <c r="D21" s="2" t="n"/>
-      <c r="E21" s="2" t="n"/>
-      <c r="F21" s="2" t="n"/>
-      <c r="G21" s="2" t="n"/>
+      <c r="C21" s="5" t="n"/>
+      <c r="D21" s="5" t="n"/>
+      <c r="E21" s="5" t="n"/>
+      <c r="F21" s="5" t="n"/>
+      <c r="G21" s="6" t="n"/>
     </row>
     <row r="22">
-      <c r="B22" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="C22" s="2" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="D22" s="2" t="n"/>
-      <c r="E22" s="2" t="n"/>
-      <c r="F22" s="2" t="n"/>
-      <c r="G22" s="2" t="n"/>
+      <c r="A22" t="inlineStr"/>
+      <c r="B22" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>0.4</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr"/>
+      <c r="E22" s="2" t="inlineStr"/>
+      <c r="F22" s="2" t="inlineStr"/>
+      <c r="G22" s="2" t="inlineStr"/>
     </row>
     <row r="23">
+      <c r="A23" t="inlineStr"/>
       <c r="B23" s="3" t="n"/>
-      <c r="C23" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D23" s="2" t="n"/>
-      <c r="E23" s="2" t="n"/>
-      <c r="F23" s="2" t="n"/>
-      <c r="G23" s="2" t="n"/>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr"/>
+      <c r="E23" s="2" t="inlineStr"/>
+      <c r="F23" s="2" t="inlineStr"/>
+      <c r="G23" s="2" t="inlineStr"/>
     </row>
     <row r="24">
+      <c r="A24" t="inlineStr"/>
       <c r="B24" s="3" t="n"/>
-      <c r="C24" s="2" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="D24" s="2" t="n"/>
-      <c r="E24" s="2" t="n"/>
-      <c r="F24" s="2" t="n"/>
-      <c r="G24" s="2" t="n"/>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>3.6</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr"/>
+      <c r="E24" s="2" t="inlineStr"/>
+      <c r="F24" s="2" t="inlineStr"/>
+      <c r="G24" s="2" t="inlineStr"/>
     </row>
     <row r="25">
+      <c r="A25" t="inlineStr"/>
       <c r="B25" s="4" t="n"/>
-      <c r="C25" s="2" t="n">
-        <v>-3.6</v>
-      </c>
-      <c r="D25" s="2" t="n"/>
-      <c r="E25" s="2" t="n"/>
-      <c r="F25" s="2" t="n"/>
-      <c r="G25" s="2" t="n"/>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>-3.6</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr"/>
+      <c r="E25" s="2" t="inlineStr"/>
+      <c r="F25" s="2" t="inlineStr"/>
+      <c r="G25" s="2" t="inlineStr"/>
     </row>
     <row r="26">
-      <c r="B26" s="2" t="n">
-        <v>40</v>
-      </c>
-      <c r="C26" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D26" s="2" t="n"/>
-      <c r="E26" s="2" t="n"/>
-      <c r="F26" s="2" t="n"/>
-      <c r="G26" s="2" t="n"/>
+      <c r="A26" t="inlineStr"/>
+      <c r="B26" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr"/>
+      <c r="E26" s="2" t="inlineStr"/>
+      <c r="F26" s="2" t="inlineStr"/>
+      <c r="G26" s="2" t="inlineStr"/>
     </row>
     <row r="27">
+      <c r="A27" t="inlineStr"/>
       <c r="B27" s="3" t="n"/>
-      <c r="C27" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="D27" s="2" t="n"/>
-      <c r="E27" s="2" t="n"/>
-      <c r="F27" s="2" t="n"/>
-      <c r="G27" s="2" t="n"/>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr"/>
+      <c r="E27" s="2" t="inlineStr"/>
+      <c r="F27" s="2" t="inlineStr"/>
+      <c r="G27" s="2" t="inlineStr"/>
     </row>
     <row r="28">
+      <c r="A28" t="inlineStr"/>
       <c r="B28" s="3" t="n"/>
-      <c r="C28" s="2" t="n">
-        <v>36</v>
-      </c>
-      <c r="D28" s="2" t="n"/>
-      <c r="E28" s="2" t="n"/>
-      <c r="F28" s="2" t="n"/>
-      <c r="G28" s="2" t="n"/>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr"/>
+      <c r="E28" s="2" t="inlineStr"/>
+      <c r="F28" s="2" t="inlineStr"/>
+      <c r="G28" s="2" t="inlineStr"/>
     </row>
     <row r="29">
+      <c r="A29" t="inlineStr"/>
       <c r="B29" s="4" t="n"/>
-      <c r="C29" s="2" t="n">
-        <v>-36</v>
-      </c>
-      <c r="D29" s="2" t="n"/>
-      <c r="E29" s="2" t="n"/>
-      <c r="F29" s="2" t="n"/>
-      <c r="G29" s="2" t="n"/>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>-36.0</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr"/>
+      <c r="E29" s="2" t="inlineStr"/>
+      <c r="F29" s="2" t="inlineStr"/>
+      <c r="G29" s="2" t="inlineStr"/>
     </row>
     <row r="30">
-      <c r="B30" s="2" t="n">
-        <v>400</v>
-      </c>
-      <c r="C30" s="2" t="n">
-        <v>40</v>
-      </c>
-      <c r="D30" s="2" t="n"/>
-      <c r="E30" s="2" t="n"/>
-      <c r="F30" s="2" t="n"/>
-      <c r="G30" s="2" t="n"/>
+      <c r="A30" t="inlineStr"/>
+      <c r="B30" s="2" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr"/>
+      <c r="E30" s="2" t="inlineStr"/>
+      <c r="F30" s="2" t="inlineStr"/>
+      <c r="G30" s="2" t="inlineStr"/>
     </row>
     <row r="31">
+      <c r="A31" t="inlineStr"/>
       <c r="B31" s="3" t="n"/>
-      <c r="C31" s="2" t="n">
-        <v>200</v>
-      </c>
-      <c r="D31" s="2" t="n"/>
-      <c r="E31" s="2" t="n"/>
-      <c r="F31" s="2" t="n"/>
-      <c r="G31" s="2" t="n"/>
+      <c r="C31" s="2" t="inlineStr">
+        <is>
+          <t>200.0</t>
+        </is>
+      </c>
+      <c r="D31" s="2" t="inlineStr"/>
+      <c r="E31" s="2" t="inlineStr"/>
+      <c r="F31" s="2" t="inlineStr"/>
+      <c r="G31" s="2" t="inlineStr"/>
     </row>
     <row r="32">
+      <c r="A32" t="inlineStr"/>
       <c r="B32" s="3" t="n"/>
-      <c r="C32" s="2" t="n">
-        <v>360</v>
-      </c>
-      <c r="D32" s="2" t="n"/>
-      <c r="E32" s="2" t="n"/>
-      <c r="F32" s="2" t="n"/>
-      <c r="G32" s="2" t="n"/>
+      <c r="C32" s="2" t="inlineStr">
+        <is>
+          <t>360.0</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="inlineStr"/>
+      <c r="E32" s="2" t="inlineStr"/>
+      <c r="F32" s="2" t="inlineStr"/>
+      <c r="G32" s="2" t="inlineStr"/>
     </row>
     <row r="33">
+      <c r="A33" t="inlineStr"/>
       <c r="B33" s="4" t="n"/>
-      <c r="C33" s="2" t="n">
-        <v>-360</v>
-      </c>
-      <c r="D33" s="2" t="n"/>
-      <c r="E33" s="2" t="n"/>
-      <c r="F33" s="2" t="n"/>
-      <c r="G33" s="2" t="n"/>
+      <c r="C33" s="2" t="inlineStr">
+        <is>
+          <t>-360.0</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="inlineStr"/>
+      <c r="E33" s="2" t="inlineStr"/>
+      <c r="F33" s="2" t="inlineStr"/>
+      <c r="G33" s="2" t="inlineStr"/>
     </row>
     <row r="34">
-      <c r="B34" s="2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="C34" s="2" t="n">
-        <v>100</v>
-      </c>
-      <c r="D34" s="2" t="n"/>
-      <c r="E34" s="2" t="n"/>
-      <c r="F34" s="2" t="n"/>
-      <c r="G34" s="2" t="n"/>
+      <c r="A34" t="inlineStr"/>
+      <c r="B34" s="2" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="inlineStr">
+        <is>
+          <t>100.0</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="inlineStr"/>
+      <c r="E34" s="2" t="inlineStr"/>
+      <c r="F34" s="2" t="inlineStr"/>
+      <c r="G34" s="2" t="inlineStr"/>
     </row>
     <row r="35">
+      <c r="A35" t="inlineStr"/>
       <c r="B35" s="3" t="n"/>
-      <c r="C35" s="2" t="n">
-        <v>500</v>
-      </c>
-      <c r="D35" s="2" t="n"/>
-      <c r="E35" s="2" t="n"/>
-      <c r="F35" s="2" t="n"/>
-      <c r="G35" s="2" t="n"/>
+      <c r="C35" s="2" t="inlineStr">
+        <is>
+          <t>500.0</t>
+        </is>
+      </c>
+      <c r="D35" s="2" t="inlineStr"/>
+      <c r="E35" s="2" t="inlineStr"/>
+      <c r="F35" s="2" t="inlineStr"/>
+      <c r="G35" s="2" t="inlineStr"/>
     </row>
     <row r="36">
+      <c r="A36" t="inlineStr"/>
       <c r="B36" s="3" t="n"/>
-      <c r="C36" s="2" t="n">
-        <v>900</v>
-      </c>
-      <c r="D36" s="2" t="n"/>
-      <c r="E36" s="2" t="n"/>
-      <c r="F36" s="2" t="n"/>
-      <c r="G36" s="2" t="n"/>
+      <c r="C36" s="2" t="inlineStr">
+        <is>
+          <t>900.0</t>
+        </is>
+      </c>
+      <c r="D36" s="2" t="inlineStr"/>
+      <c r="E36" s="2" t="inlineStr"/>
+      <c r="F36" s="2" t="inlineStr"/>
+      <c r="G36" s="2" t="inlineStr"/>
     </row>
     <row r="37">
+      <c r="A37" t="inlineStr"/>
       <c r="B37" s="4" t="n"/>
-      <c r="C37" s="2" t="n">
-        <v>-900</v>
-      </c>
-      <c r="D37" s="2" t="n"/>
-      <c r="E37" s="2" t="n"/>
-      <c r="F37" s="2" t="n"/>
-      <c r="G37" s="2" t="n"/>
+      <c r="C37" s="2" t="inlineStr">
+        <is>
+          <t>-900.0</t>
+        </is>
+      </c>
+      <c r="D37" s="2" t="inlineStr"/>
+      <c r="E37" s="2" t="inlineStr"/>
+      <c r="F37" s="2" t="inlineStr"/>
+      <c r="G37" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -833,11 +979,11 @@
           <t>V</t>
         </is>
       </c>
-      <c r="C16" s="2" t="n"/>
-      <c r="D16" s="2" t="n"/>
-      <c r="E16" s="2" t="n"/>
-      <c r="F16" s="2" t="n"/>
-      <c r="G16" s="2" t="n"/>
+      <c r="C16" s="5" t="n"/>
+      <c r="D16" s="5" t="n"/>
+      <c r="E16" s="5" t="n"/>
+      <c r="F16" s="5" t="n"/>
+      <c r="G16" s="6" t="n"/>
     </row>
     <row r="17">
       <c r="B17" s="2" t="n">
@@ -993,11 +1139,11 @@
           <t>mA</t>
         </is>
       </c>
-      <c r="C16" s="2" t="n"/>
-      <c r="D16" s="2" t="n"/>
-      <c r="E16" s="2" t="n"/>
-      <c r="F16" s="2" t="n"/>
-      <c r="G16" s="2" t="n"/>
+      <c r="C16" s="5" t="n"/>
+      <c r="D16" s="5" t="n"/>
+      <c r="E16" s="5" t="n"/>
+      <c r="F16" s="5" t="n"/>
+      <c r="G16" s="6" t="n"/>
     </row>
     <row r="17">
       <c r="B17" s="2" t="n">
@@ -1131,11 +1277,11 @@
           <t>A</t>
         </is>
       </c>
-      <c r="C29" s="2" t="n"/>
-      <c r="D29" s="2" t="n"/>
-      <c r="E29" s="2" t="n"/>
-      <c r="F29" s="2" t="n"/>
-      <c r="G29" s="2" t="n"/>
+      <c r="C29" s="5" t="n"/>
+      <c r="D29" s="5" t="n"/>
+      <c r="E29" s="5" t="n"/>
+      <c r="F29" s="5" t="n"/>
+      <c r="G29" s="6" t="n"/>
     </row>
     <row r="30">
       <c r="B30" s="2" t="n">
@@ -1252,11 +1398,11 @@
           <t>mA</t>
         </is>
       </c>
-      <c r="C16" s="2" t="n"/>
-      <c r="D16" s="2" t="n"/>
-      <c r="E16" s="2" t="n"/>
-      <c r="F16" s="2" t="n"/>
-      <c r="G16" s="2" t="n"/>
+      <c r="C16" s="5" t="n"/>
+      <c r="D16" s="5" t="n"/>
+      <c r="E16" s="5" t="n"/>
+      <c r="F16" s="5" t="n"/>
+      <c r="G16" s="6" t="n"/>
     </row>
     <row r="17">
       <c r="B17" s="2" t="n">
@@ -1348,11 +1494,11 @@
           <t>A</t>
         </is>
       </c>
-      <c r="C25" s="2" t="n"/>
-      <c r="D25" s="2" t="n"/>
-      <c r="E25" s="2" t="n"/>
-      <c r="F25" s="2" t="n"/>
-      <c r="G25" s="2" t="n"/>
+      <c r="C25" s="5" t="n"/>
+      <c r="D25" s="5" t="n"/>
+      <c r="E25" s="5" t="n"/>
+      <c r="F25" s="5" t="n"/>
+      <c r="G25" s="6" t="n"/>
     </row>
     <row r="26">
       <c r="B26" s="2" t="n">
@@ -1414,7 +1560,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B15:G33"/>
+  <dimension ref="B15:G30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1468,10 +1614,10 @@
           <t>Ω</t>
         </is>
       </c>
-      <c r="C16" s="2" t="n"/>
-      <c r="D16" s="2" t="n"/>
-      <c r="E16" s="2" t="n"/>
-      <c r="F16" s="2" t="n"/>
+      <c r="C16" s="5" t="n"/>
+      <c r="D16" s="5" t="n"/>
+      <c r="E16" s="5" t="n"/>
+      <c r="F16" s="6" t="n"/>
       <c r="G16" s="2" t="n"/>
     </row>
     <row r="17">
@@ -1502,10 +1648,10 @@
           <t>kΩ</t>
         </is>
       </c>
-      <c r="C19" s="2" t="n"/>
-      <c r="D19" s="2" t="n"/>
-      <c r="E19" s="2" t="n"/>
-      <c r="F19" s="2" t="n"/>
+      <c r="C19" s="5" t="n"/>
+      <c r="D19" s="5" t="n"/>
+      <c r="E19" s="5" t="n"/>
+      <c r="F19" s="6" t="n"/>
       <c r="G19" s="2" t="n"/>
     </row>
     <row r="20">
@@ -1580,10 +1726,10 @@
           <t>MΩ</t>
         </is>
       </c>
-      <c r="C26" s="2" t="n"/>
-      <c r="D26" s="2" t="n"/>
-      <c r="E26" s="2" t="n"/>
-      <c r="F26" s="2" t="n"/>
+      <c r="C26" s="5" t="n"/>
+      <c r="D26" s="5" t="n"/>
+      <c r="E26" s="5" t="n"/>
+      <c r="F26" s="6" t="n"/>
       <c r="G26" s="2" t="n"/>
     </row>
     <row r="27">
@@ -1630,9 +1776,6 @@
       <c r="F30" s="2" t="n"/>
       <c r="G30" s="2" t="n"/>
     </row>
-    <row r="31"/>
-    <row r="32"/>
-    <row r="33"/>
   </sheetData>
   <mergeCells count="9">
     <mergeCell ref="B27:B28"/>
